--- a/ОписаниеИзменений/Описание изменений по форме/Спецификация_0160_Архивация проектов.xlsx
+++ b/ОписаниеИзменений/Описание изменений по форме/Спецификация_0160_Архивация проектов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\IGS_BSO\ОписаниеИзменений\Описание изменений по форме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FA0D99-7B3F-4853-9457-42EC26E09F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8364CF-7ED5-4A4C-8DE0-74999F0A8B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>Дата изменения</t>
   </si>
@@ -180,13 +180,16 @@
     <t>Форма документа общая</t>
   </si>
   <si>
-    <t>Изменена процедура "игсНастроитьФорму" - устанавливает действия для новых реквихитов</t>
-  </si>
-  <si>
     <t>Изменена процедура "ПлановыеПоказателиСкважинаОбработкаВыбора" -проверяет, закрыт ли выбранный проект</t>
   </si>
   <si>
     <t>Создана функция "ПолучитьСостояниеПроекта" - возвращает состояние проекта</t>
+  </si>
+  <si>
+    <t>Изменена процедура "УслугиСубконтоНУ1ПриИзменении" - добавлен вызов процедуры "игсУслугиСубконтоНУ1ПриИзменении"</t>
+  </si>
+  <si>
+    <t>Изменена процедура "УслугиСубконто1ПриИзменении" - добавлен вызов процедуры "игсУслугиСубконто1ПриИзменении"</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -298,25 +301,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -599,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,82 +634,82 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19">
-        <v>45910</v>
-      </c>
-      <c r="C2" s="20"/>
+      <c r="B2" s="16">
+        <v>45959</v>
+      </c>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="21">
         <v>160</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -708,11 +717,11 @@
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -998,7 +1007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>22</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1017,10 +1026,10 @@
         <v>50</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>22</v>
       </c>
@@ -1028,10 +1037,10 @@
         <v>50</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>22</v>
       </c>
@@ -1039,21 +1048,21 @@
         <v>50</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>20</v>
       </c>
@@ -1061,13 +1070,19 @@
         <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
@@ -1081,7 +1096,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,7 +1106,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1109,18 +1124,23 @@
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
